--- a/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuraciones.xlsx
+++ b/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuraciones.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="105">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -181,12 +181,6 @@
     <t xml:space="preserve">Ingresar las Credenciales </t>
   </si>
   <si>
-    <t>Aplicación PABMI</t>
-  </si>
-  <si>
-    <t>PABMI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Principal </t>
   </si>
   <si>
@@ -214,13 +208,7 @@
     <t>Editar</t>
   </si>
   <si>
-    <t>Cancelar</t>
-  </si>
-  <si>
     <t>Ortografía</t>
-  </si>
-  <si>
-    <t>Exportar</t>
   </si>
   <si>
     <t>Etiquetas de fila</t>
@@ -295,25 +283,13 @@
     <t xml:space="preserve">Rodolfo Zuñiga </t>
   </si>
   <si>
-    <t xml:space="preserve">Ingresar al apartado correspondiente </t>
-  </si>
-  <si>
     <t>Menú Inicio</t>
   </si>
   <si>
     <t>Tester: Iris Lechuga</t>
   </si>
   <si>
-    <t>Se ingresa al sistema PABMI, se despliega el menú donde se presentan todas las opciones, se localiza un problema de ortografía en la opción de Catálogos.</t>
-  </si>
-  <si>
-    <t>Ingreso Correctamente al sistema</t>
-  </si>
-  <si>
     <t>irisc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingreso correctamente con el usuario correspondiente </t>
   </si>
   <si>
     <t>Cuenta de Estatus de Prueba</t>
@@ -332,6 +308,144 @@
   </si>
   <si>
     <t xml:space="preserve">Administrador </t>
+  </si>
+  <si>
+    <t>SGCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destinos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entes Públicos Obligados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Días del Ejercicio </t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuentes de Pago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuentes Alternas de Pago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituciones Financieras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obligados Solidarios / Avales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periocidad del Pago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reglas de Financiamiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de Referencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de Comisión </t>
+  </si>
+  <si>
+    <t>Tipos de Documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de Ente Público </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar al apartado correctamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar Registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar Registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Registro </t>
+  </si>
+  <si>
+    <t>Sin Faltas de Ortografía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar al sistema </t>
+  </si>
+  <si>
+    <t>Ingresar con la credenciale asignada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicación </t>
+  </si>
+  <si>
+    <t>Ingresar a la plataforma asignada</t>
+  </si>
+  <si>
+    <t>Despliegue  a la plataforma asignada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar al Menú principal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar apartado configuración </t>
+  </si>
+  <si>
+    <t>No permite agregar un nuevo registro arroja mensaje de error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se intento borrar un registro ya realizado previamente pero no se guardaron los cambios y no se borro el registro requerido 
+ Envía mensaje de confirmación exitosa 
+Ajustar el color del botón Eliminar 
+Borrar la el apostrofe que esta antes del signo de interrogación cerrado </t>
+  </si>
+  <si>
+    <t>Se intento editar un registro ya realizado previamente pero no se guardaron los cambios 
+ Envía mensaje de confirmación exitosa 
+Ajustar el color del botón editar</t>
+  </si>
+  <si>
+    <t>No presenta errores ortograficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al apartado correctamente </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-487</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-488</t>
+  </si>
+  <si>
+    <t>Ajustar color en los Botones Editar y Eliminar Registros</t>
+  </si>
+  <si>
+    <t>Ajustar redacción mensajes de alertas</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tooltip descriptivo </t>
+  </si>
+  <si>
+    <t>Se eliminó elemento que ya había sigo  previamente agregado (Se eliminó China) 
+ Envía mensaje de confirmación exitosa 
+Ajustar el color del botón Eliminar 
+Ajustar Mayúsculas "Entes Públicos Obligados" 
+Ajustar color en botón o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se edito un elemento previamente  agregado  pero no guardo cambios 
+ Envía "error"  mensaje de confirmación  
+Ajustar el color del botón editar
+Ajustar el mensaje de alerta cuando no se agrega información en los campos y das clic en botón aceptar
+Dice:  Error Ha sucedido un error, inténtelo de nuevo 
+Debería decir: ¡Error! Favor de completar los campos ó también dar la opción de no habilitar el botón aceptar hasta que se haya llenado los campos .
+</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-492</t>
   </si>
 </sst>
 </file>
@@ -648,7 +762,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -683,15 +797,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,14 +856,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9487,10 +9600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9511,94 +9624,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="A1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="A3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -9655,7 +9768,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -9666,17 +9779,17 @@
       <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="J7" s="14"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>45127</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -9684,10 +9797,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -9698,28 +9811,28 @@
       <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>45127</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -9730,86 +9843,92 @@
       <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="J9" s="2"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>45127</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>45127</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J11" s="2"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>45127</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -9822,118 +9941,1380 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J12" s="2"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>45127</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+      <c r="A13" s="21">
         <v>7</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="41" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
       <c r="M13" s="15"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>45127</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="40"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="1"/>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="1">
+        <v>45128</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="40"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>83</v>
       </c>
       <c r="M17" s="15"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>45128</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16"/>
+      <c r="A18" s="21">
+        <v>8</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
       </c>
       <c r="M18" s="15"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>45128</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="40"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="1"/>
+      <c r="I22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="1">
+        <v>45128</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>9</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="2"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="1"/>
+      <c r="I23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N25" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>83</v>
+      </c>
+      <c r="N27" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>10</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N29" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="231" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N31" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>11</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>12</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <v>13</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="21">
+        <v>14</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="21">
+        <v>15</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
+        <v>16</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="21">
+        <v>17</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="21"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="21">
+        <v>18</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="21"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="21"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="21">
+        <v>19</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="21"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="21"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="21"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="21"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="21">
+        <v>20</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="21"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="21"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="21">
+        <v>21</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="21"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="21"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="21"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="21"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I87" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N20">
@@ -9951,9 +11332,75 @@
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
-  <mergeCells count="9">
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="A13:A20"/>
+  <mergeCells count="82">
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:F4"/>
@@ -9961,12 +11408,26 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:N5"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="M14" r:id="rId2"/>
+    <hyperlink ref="M15" r:id="rId3"/>
+    <hyperlink ref="M21" r:id="rId4"/>
+    <hyperlink ref="M24" r:id="rId5"/>
+    <hyperlink ref="M25:M26" r:id="rId6" display="https://srpu.atlassian.net/browse/SGCM-489"/>
+    <hyperlink ref="M29" r:id="rId7"/>
+    <hyperlink ref="M30:M31" r:id="rId8" display="https://srpu.atlassian.net/browse/SGCM-492"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -9980,19 +11441,19 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L21</xm:sqref>
+          <xm:sqref>L8:L21 L24:L26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K20</xm:sqref>
+          <xm:sqref>K7:K21 K24:K26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G22</xm:sqref>
+          <xm:sqref>G7:G87</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10024,25 +11485,25 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="19">
+        <v>33</v>
+      </c>
+      <c r="B4" s="17">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="20">
+        <v>34</v>
+      </c>
+      <c r="B5" s="18">
         <v>33</v>
       </c>
     </row>
@@ -10050,74 +11511,74 @@
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="21">
+        <v>35</v>
+      </c>
+      <c r="B7" s="19">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="19">
+        <v>36</v>
+      </c>
+      <c r="B25" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="21">
+        <v>35</v>
+      </c>
+      <c r="B26" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
         <v>35</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+        <v>40</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10143,7 +11604,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -10154,13 +11615,13 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -10168,64 +11629,64 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>51</v>
+      <c r="D4" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="18" t="s">
-        <v>53</v>
+      <c r="D6" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="18" t="s">
-        <v>54</v>
+      <c r="D7" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="18" t="s">
-        <v>55</v>
+      <c r="D8" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="18" t="s">
-        <v>56</v>
+      <c r="D9" s="16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="18" t="s">
-        <v>57</v>
+      <c r="D10" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="18" t="s">
-        <v>46</v>
+      <c r="D11" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="18" t="s">
-        <v>58</v>
+      <c r="D12" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuraciones.xlsx
+++ b/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuraciones.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="113">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -446,6 +446,57 @@
   </si>
   <si>
     <t>https://srpu.atlassian.net/browse/SGCM-492</t>
+  </si>
+  <si>
+    <t>Se guardo un nuevo elemento,  se genera en la pantalla principal , arroja mensaje de confirmación exitoso.  ¿Es Elemento o descripción ? ya que al agregar un nuevo elemento dice " Nuevo elemento" Pero en mensaje de Confirmación dice Descripción</t>
+  </si>
+  <si>
+    <t>Ajustar el color del botón Eliminar 
+Ajustar color en botón ok</t>
+  </si>
+  <si>
+    <t>Ajustar el color del botón Editar 
+Ajustar color en botón ok</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-493</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ajustar el mensaje de alerta cuando </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se agrega información en los campos y das clic en botón aceptar</t>
+    </r>
+  </si>
+  <si>
+    <t>Ajustar el color del botón Eliminar
+Ajustar color en botón ok</t>
+  </si>
+  <si>
+    <t>Ajustar el color del botón editar / justar color en botón ok
+Ajustar el mensaje de alerta cuando no se agrega información en los campos y das clic en botón aceptar</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-494</t>
   </si>
 </sst>
 </file>
@@ -805,6 +856,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,15 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9602,8 +9653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:N31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9624,94 +9675,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="29" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -9953,16 +10004,16 @@
       <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -9981,10 +10032,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
@@ -10012,10 +10063,10 @@
     </row>
     <row r="15" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="41"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="3" t="s">
         <v>28</v>
       </c>
@@ -10043,10 +10094,10 @@
     </row>
     <row r="16" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
@@ -10074,10 +10125,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
@@ -10099,16 +10150,16 @@
       <c r="A18" s="21">
         <v>8</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -10130,10 +10181,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="3" t="s">
         <v>27</v>
       </c>
@@ -10150,10 +10201,10 @@
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="3" t="s">
         <v>28</v>
       </c>
@@ -10182,10 +10233,10 @@
     </row>
     <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
@@ -10213,10 +10264,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="3" t="s">
         <v>30</v>
       </c>
@@ -10234,16 +10285,16 @@
       <c r="A23" s="21">
         <v>9</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -10261,10 +10312,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="3" t="s">
         <v>27</v>
       </c>
@@ -10292,10 +10343,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
@@ -10323,10 +10374,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="3" t="s">
         <v>29</v>
       </c>
@@ -10354,10 +10405,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="3" t="s">
         <v>30</v>
       </c>
@@ -10375,16 +10426,16 @@
       <c r="A28" s="21">
         <v>10</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -10402,10 +10453,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="3" t="s">
         <v>27</v>
       </c>
@@ -10417,6 +10468,12 @@
       </c>
       <c r="I29" t="s">
         <v>80</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>104</v>
@@ -10427,10 +10484,10 @@
     </row>
     <row r="30" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="3" t="s">
         <v>28</v>
       </c>
@@ -10442,6 +10499,12 @@
       </c>
       <c r="I30" t="s">
         <v>81</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>104</v>
@@ -10452,10 +10515,10 @@
     </row>
     <row r="31" spans="1:14" ht="231" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="41"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="3" t="s">
         <v>29</v>
       </c>
@@ -10477,10 +10540,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="41"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="3" t="s">
         <v>30</v>
       </c>
@@ -10491,170 +10554,290 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>11</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
       <c r="I33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="41"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
+        <v>105</v>
+      </c>
       <c r="I34" t="s">
         <v>80</v>
       </c>
+      <c r="K34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N34" s="1">
+        <v>45128</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="41"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="I35" t="s">
         <v>81</v>
       </c>
+      <c r="K35" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="1">
+        <v>45128</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="41"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="I36" t="s">
         <v>82</v>
       </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" s="1">
+        <v>45128</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="41"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
       <c r="I37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>12</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
       <c r="I38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="41"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s">
+        <v>109</v>
+      </c>
       <c r="I39" t="s">
         <v>80</v>
       </c>
+      <c r="K39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N39" s="1">
+        <v>45128</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="41"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="I40" t="s">
         <v>81</v>
       </c>
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N40" s="1">
+        <v>45128</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="41"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="I41" t="s">
         <v>82</v>
       </c>
+      <c r="K41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N41" s="1">
+        <v>45128</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="41"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
       <c r="I42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>13</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -10664,12 +10847,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="41"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="3" t="s">
         <v>27</v>
       </c>
@@ -10677,12 +10860,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="41"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="3" t="s">
         <v>28</v>
       </c>
@@ -10690,12 +10873,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="41"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="3" t="s">
         <v>29</v>
       </c>
@@ -10703,12 +10886,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="41"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="3" t="s">
         <v>30</v>
       </c>
@@ -10716,20 +10899,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
         <v>14</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -10741,10 +10924,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="41"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="3" t="s">
         <v>27</v>
       </c>
@@ -10754,10 +10937,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="41"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="3" t="s">
         <v>28</v>
       </c>
@@ -10767,10 +10950,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="41"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="3" t="s">
         <v>29</v>
       </c>
@@ -10780,10 +10963,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="41"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="3" t="s">
         <v>30</v>
       </c>
@@ -10795,16 +10978,16 @@
       <c r="A53" s="21">
         <v>15</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -10816,10 +10999,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="41"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="3" t="s">
         <v>27</v>
       </c>
@@ -10829,10 +11012,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="41"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
       <c r="F55" s="3" t="s">
         <v>28</v>
       </c>
@@ -10842,10 +11025,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="41"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
       <c r="F56" s="3" t="s">
         <v>29</v>
       </c>
@@ -10855,10 +11038,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="41"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
       <c r="F57" s="3" t="s">
         <v>30</v>
       </c>
@@ -10870,16 +11053,16 @@
       <c r="A58" s="21">
         <v>16</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E58" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -10891,10 +11074,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="41"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
       <c r="F59" s="3" t="s">
         <v>27</v>
       </c>
@@ -10904,10 +11087,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="41"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="24"/>
       <c r="F60" s="3" t="s">
         <v>28</v>
       </c>
@@ -10917,10 +11100,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="41"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="3" t="s">
         <v>29</v>
       </c>
@@ -10930,10 +11113,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="41"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="3" t="s">
         <v>30</v>
       </c>
@@ -10945,16 +11128,16 @@
       <c r="A63" s="21">
         <v>17</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -10966,10 +11149,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="41"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
       <c r="F64" s="3" t="s">
         <v>27</v>
       </c>
@@ -10979,10 +11162,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="41"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="3" t="s">
         <v>28</v>
       </c>
@@ -10992,10 +11175,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="41"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
       <c r="F66" s="3" t="s">
         <v>29</v>
       </c>
@@ -11005,10 +11188,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="41"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
       <c r="F67" s="3" t="s">
         <v>30</v>
       </c>
@@ -11020,16 +11203,16 @@
       <c r="A68" s="21">
         <v>18</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D68" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="41" t="s">
+      <c r="E68" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -11041,10 +11224,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="41"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
       <c r="F69" s="3" t="s">
         <v>27</v>
       </c>
@@ -11054,10 +11237,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="41"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
       <c r="F70" s="3" t="s">
         <v>28</v>
       </c>
@@ -11067,10 +11250,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="41"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
       <c r="F71" s="3" t="s">
         <v>29</v>
       </c>
@@ -11080,10 +11263,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="41"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
       <c r="F72" s="3" t="s">
         <v>30</v>
       </c>
@@ -11095,16 +11278,16 @@
       <c r="A73" s="21">
         <v>19</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -11116,10 +11299,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="41"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
       <c r="F74" s="3" t="s">
         <v>27</v>
       </c>
@@ -11129,10 +11312,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="41"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="3" t="s">
         <v>28</v>
       </c>
@@ -11142,10 +11325,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="41"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="3" t="s">
         <v>29</v>
       </c>
@@ -11155,10 +11338,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="41"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="3" t="s">
         <v>30</v>
       </c>
@@ -11170,16 +11353,16 @@
       <c r="A78" s="21">
         <v>20</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F78" s="3" t="s">
@@ -11191,10 +11374,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="41"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="24"/>
       <c r="F79" s="3" t="s">
         <v>27</v>
       </c>
@@ -11204,10 +11387,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="41"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="3" t="s">
         <v>28</v>
       </c>
@@ -11217,10 +11400,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="41"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="24"/>
       <c r="F81" s="3" t="s">
         <v>29</v>
       </c>
@@ -11230,10 +11413,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="41"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="24"/>
       <c r="F82" s="3" t="s">
         <v>30</v>
       </c>
@@ -11245,16 +11428,16 @@
       <c r="A83" s="21">
         <v>21</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="39" t="s">
+      <c r="D83" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E83" s="41" t="s">
+      <c r="E83" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F83" s="3" t="s">
@@ -11266,10 +11449,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="21"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="41"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="24"/>
       <c r="F84" s="3" t="s">
         <v>27</v>
       </c>
@@ -11279,10 +11462,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="41"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="24"/>
       <c r="F85" s="3" t="s">
         <v>28</v>
       </c>
@@ -11292,10 +11475,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="41"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="24"/>
       <c r="F86" s="3" t="s">
         <v>29</v>
       </c>
@@ -11305,10 +11488,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="21"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="41"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="24"/>
       <c r="F87" s="3" t="s">
         <v>30</v>
       </c>
@@ -11333,66 +11516,18 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="82">
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="E78:E82"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="A18:A22"/>
@@ -11401,20 +11536,68 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="A13:A17"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="E18:E22"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -11425,9 +11608,13 @@
     <hyperlink ref="M25:M26" r:id="rId6" display="https://srpu.atlassian.net/browse/SGCM-489"/>
     <hyperlink ref="M29" r:id="rId7"/>
     <hyperlink ref="M30:M31" r:id="rId8" display="https://srpu.atlassian.net/browse/SGCM-492"/>
+    <hyperlink ref="M34" r:id="rId9"/>
+    <hyperlink ref="M35:M36" r:id="rId10" display="https://srpu.atlassian.net/browse/SGCM-493"/>
+    <hyperlink ref="M39" r:id="rId11"/>
+    <hyperlink ref="M40:M41" r:id="rId12" display="https://srpu.atlassian.net/browse/SGCM-494"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -11441,13 +11628,13 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L21 L24:L26</xm:sqref>
+          <xm:sqref>L8:L21 L24:L26 L29:L30 L34:L36 L39:L41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K21 K24:K26</xm:sqref>
+          <xm:sqref>K7:K21 K24:K26 K29:K30 K34:K36 K39:K41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuraciones.xlsx
+++ b/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuraciones.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="131">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t xml:space="preserve">Obligados Solidarios / Avales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periocidad del Pago </t>
   </si>
   <si>
     <t xml:space="preserve">Reglas de Financiamiento </t>
@@ -498,12 +495,72 @@
   <si>
     <t>https://srpu.atlassian.net/browse/SGCM-494</t>
   </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No elimino el elemento seleccionado </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-497</t>
+  </si>
+  <si>
+    <t>Ajustar el mensaje de alerta cuando no se agrega información en los campos y das clic en botón aceptar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se encuentran errores de ortografía </t>
+  </si>
+  <si>
+    <t>Ajustar el mensaje de alerta cuando no se agrega información en los campos y das clic en botón aceptar 
+Dice: Error Ingrese nuevo elemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustar el color del botón Eliminar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustar el color del botón editar / justar color en botón ok </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodicidad del Pago </t>
+  </si>
+  <si>
+    <t>Ajustar el mensaje de alerta cuando no se agrega información en los campos y das clic en botón aceptar
+Dice: Error Ingrese nuevo elemento</t>
+  </si>
+  <si>
+    <t>Al editar un elemento se detecta que no tiene un margen de numero de palabras para redacta y al ser muy extenso la pierde la visibilidad de la tabla en pantalla</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-499</t>
+  </si>
+  <si>
+    <t>Obligatorio en inscripción a corto / largo  plazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualiza en que campo pertenence cada regla </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-500</t>
+  </si>
+  <si>
+    <t>Envía mensaje de confirmación exitosa
+Ajustar el color del botón Eliminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia la opción según sea el caso que corresponda </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-501</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +627,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -813,7 +877,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -854,16 +918,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -916,6 +980,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -9651,10 +9716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="C71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9832,7 +9897,7 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="14"/>
       <c r="M7" s="15"/>
@@ -9864,7 +9929,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J8" s="2"/>
       <c r="M8" s="15"/>
@@ -9877,7 +9942,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>64</v>
@@ -9896,7 +9961,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9" s="2"/>
       <c r="M9" s="15"/>
@@ -9928,7 +9993,7 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2"/>
       <c r="M10" s="15"/>
@@ -9960,7 +10025,7 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2"/>
       <c r="M11" s="15"/>
@@ -9992,7 +10057,7 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" s="2"/>
       <c r="M12" s="15"/>
@@ -10001,19 +10066,19 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="24">
         <v>7</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -10023,7 +10088,7 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="1">
@@ -10031,11 +10096,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
@@ -10043,10 +10108,10 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s">
         <v>46</v>
@@ -10055,18 +10120,18 @@
         <v>36</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N14" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="3" t="s">
         <v>28</v>
       </c>
@@ -10074,10 +10139,10 @@
         <v>33</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
         <v>46</v>
@@ -10086,18 +10151,18 @@
         <v>36</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N15" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
@@ -10105,10 +10170,10 @@
         <v>33</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
         <v>46</v>
@@ -10117,18 +10182,18 @@
         <v>36</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N16" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
@@ -10136,10 +10201,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="1">
@@ -10147,19 +10212,19 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="A18" s="24">
         <v>8</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -10169,10 +10234,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="1">
@@ -10180,11 +10245,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="3" t="s">
         <v>27</v>
       </c>
@@ -10192,7 +10257,7 @@
         <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="1">
@@ -10200,11 +10265,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="3" t="s">
         <v>28</v>
       </c>
@@ -10212,10 +10277,10 @@
         <v>33</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" t="s">
@@ -10225,18 +10290,18 @@
         <v>36</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N20" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
@@ -10244,10 +10309,10 @@
         <v>33</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s">
         <v>46</v>
@@ -10256,18 +10321,18 @@
         <v>36</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N21" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="3" t="s">
         <v>30</v>
       </c>
@@ -10275,26 +10340,26 @@
         <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N22" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="A23" s="24">
         <v>9</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -10304,18 +10369,18 @@
         <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N23" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="3" t="s">
         <v>27</v>
       </c>
@@ -10323,10 +10388,10 @@
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
@@ -10335,18 +10400,18 @@
         <v>36</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N24" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
@@ -10354,10 +10419,10 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s">
         <v>46</v>
@@ -10366,18 +10431,18 @@
         <v>36</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N25" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="3" t="s">
         <v>29</v>
       </c>
@@ -10385,10 +10450,10 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
@@ -10397,18 +10462,18 @@
         <v>36</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N26" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="3" t="s">
         <v>30</v>
       </c>
@@ -10416,26 +10481,26 @@
         <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N27" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+      <c r="A28" s="24">
         <v>10</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -10445,18 +10510,18 @@
         <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N28" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="3" t="s">
         <v>27</v>
       </c>
@@ -10464,10 +10529,10 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -10476,18 +10541,18 @@
         <v>36</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N29" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="3" t="s">
         <v>28</v>
       </c>
@@ -10495,10 +10560,10 @@
         <v>33</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
         <v>46</v>
@@ -10507,18 +10572,18 @@
         <v>36</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N30" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="231" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="3" t="s">
         <v>29</v>
       </c>
@@ -10526,24 +10591,24 @@
         <v>33</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="I31" t="s">
-        <v>82</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="N31" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="3" t="s">
         <v>30</v>
       </c>
@@ -10551,23 +10616,23 @@
         <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
+      <c r="A33" s="24">
         <v>11</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -10577,15 +10642,15 @@
         <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="3" t="s">
         <v>27</v>
       </c>
@@ -10593,10 +10658,10 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s">
         <v>46</v>
@@ -10605,18 +10670,18 @@
         <v>36</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N34" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="3" t="s">
         <v>28</v>
       </c>
@@ -10624,10 +10689,10 @@
         <v>33</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s">
         <v>46</v>
@@ -10636,18 +10701,18 @@
         <v>36</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N35" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="3" t="s">
         <v>29</v>
       </c>
@@ -10655,10 +10720,10 @@
         <v>33</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s">
         <v>46</v>
@@ -10667,18 +10732,18 @@
         <v>36</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N36" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="3" t="s">
         <v>30</v>
       </c>
@@ -10686,23 +10751,23 @@
         <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
+      <c r="A38" s="24">
         <v>12</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -10712,15 +10777,15 @@
         <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="3" t="s">
         <v>27</v>
       </c>
@@ -10728,10 +10793,10 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s">
         <v>46</v>
@@ -10740,18 +10805,18 @@
         <v>36</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N39" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="3" t="s">
         <v>28</v>
       </c>
@@ -10759,10 +10824,10 @@
         <v>33</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s">
         <v>46</v>
@@ -10771,18 +10836,18 @@
         <v>36</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N40" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="3" t="s">
         <v>29</v>
       </c>
@@ -10790,10 +10855,10 @@
         <v>33</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s">
         <v>46</v>
@@ -10802,18 +10867,18 @@
         <v>36</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N41" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="3" t="s">
         <v>30</v>
       </c>
@@ -10821,682 +10886,1022 @@
         <v>19</v>
       </c>
       <c r="I42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="21">
+      <c r="A43" s="24">
         <v>13</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>94</v>
+      </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s">
+        <v>108</v>
+      </c>
       <c r="I44" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="K44" t="s">
+        <v>46</v>
+      </c>
+      <c r="L44" t="s">
+        <v>36</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N44" s="1">
+        <v>45128</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
+    <row r="45" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
       <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K45" t="s">
+        <v>46</v>
+      </c>
+      <c r="L45" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N45" s="1">
+        <v>45128</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
+    <row r="46" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
       <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="I46" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="K46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N46" s="1">
+        <v>45128</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
       <c r="I47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="21">
+      <c r="A48" s="24">
         <v>14</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
       <c r="I48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
       <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" t="s">
+        <v>115</v>
+      </c>
       <c r="I49" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="K49" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" t="s">
+        <v>36</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
       <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s">
+        <v>113</v>
+      </c>
       <c r="I50" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K50" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
+    <row r="51" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
       <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="I51" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="K51" t="s">
+        <v>46</v>
+      </c>
+      <c r="L51" t="s">
+        <v>36</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
       <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>116</v>
+      </c>
       <c r="I52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="21">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
         <v>15</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
       <c r="I53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
+    <row r="54" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A54" s="24"/>
       <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="I54" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="K54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L54" t="s">
+        <v>36</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
       <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="42" t="s">
+        <v>118</v>
+      </c>
       <c r="I55" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K55" t="s">
+        <v>46</v>
+      </c>
+      <c r="L55" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="24"/>
       <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s">
+        <v>119</v>
+      </c>
       <c r="I56" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="K56" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
       <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
       <c r="I57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="21">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="24">
         <v>16</v>
       </c>
       <c r="B58" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" s="23" t="s">
+      <c r="C58" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
       <c r="I58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
+    <row r="59" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A59" s="24"/>
       <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="23"/>
       <c r="F59" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="I59" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="K59" t="s">
+        <v>46</v>
+      </c>
+      <c r="L59" t="s">
+        <v>36</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
+    <row r="60" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
       <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="I60" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L60" t="s">
+        <v>36</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
       <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" t="s">
+        <v>123</v>
+      </c>
       <c r="I61" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="K61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L61" t="s">
+        <v>36</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
       <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="24"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
       <c r="I62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="21">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
         <v>17</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" s="23" t="s">
+      <c r="C63" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
       <c r="I63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="24"/>
       <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="24"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="23"/>
       <c r="F64" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" t="s">
+        <v>115</v>
+      </c>
       <c r="I64" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="K64" t="s">
+        <v>46</v>
+      </c>
+      <c r="L64" t="s">
+        <v>36</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
+    <row r="65" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="24"/>
       <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="24"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="23"/>
       <c r="F65" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="I65" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K65" t="s">
+        <v>46</v>
+      </c>
+      <c r="L65" t="s">
+        <v>36</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
+    <row r="66" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="24"/>
       <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="23"/>
       <c r="F66" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="I66" t="s">
+        <v>81</v>
+      </c>
+      <c r="K66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L66" t="s">
+        <v>36</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="24"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s">
+        <v>129</v>
+      </c>
+      <c r="I67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="24"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="3" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="24">
+        <v>18</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="24"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s">
+        <v>115</v>
+      </c>
+      <c r="I70" t="s">
+        <v>79</v>
+      </c>
+      <c r="K70" t="s">
+        <v>46</v>
+      </c>
+      <c r="L70" t="s">
+        <v>36</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="24"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I71" t="s">
+        <v>80</v>
+      </c>
+      <c r="K71" t="s">
+        <v>46</v>
+      </c>
+      <c r="L71" t="s">
+        <v>36</v>
+      </c>
+      <c r="M71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="24"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I72" t="s">
+        <v>81</v>
+      </c>
+      <c r="K72" t="s">
+        <v>46</v>
+      </c>
+      <c r="L72" t="s">
+        <v>36</v>
+      </c>
+      <c r="M72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="24"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I67" t="s">
-        <v>83</v>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="21">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="24">
+        <v>19</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="I74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="24"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="24"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="24"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="24"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="24">
+        <v>20</v>
+      </c>
+      <c r="B79" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" s="23" t="s">
+      <c r="C79" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E79" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="24"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="21">
-        <v>19</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="21">
-        <v>20</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="24"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="23"/>
       <c r="F81" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="24"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="23"/>
       <c r="F82" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="21">
-        <v>21</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="A83" s="24"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="23"/>
       <c r="F83" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I83" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="24"/>
+      <c r="A84" s="24">
+        <v>21</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="F84" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="24"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="21"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="24"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="23"/>
       <c r="F86" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I86" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="21"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="22"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="24"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="24"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I87" t="s">
-        <v>83</v>
+      <c r="I88" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -11516,18 +11921,66 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="82">
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:E68"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="A18:A22"/>
@@ -11538,66 +11991,18 @@
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="E18:E22"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="E78:E82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -11612,9 +12017,20 @@
     <hyperlink ref="M35:M36" r:id="rId10" display="https://srpu.atlassian.net/browse/SGCM-493"/>
     <hyperlink ref="M39" r:id="rId11"/>
     <hyperlink ref="M40:M41" r:id="rId12" display="https://srpu.atlassian.net/browse/SGCM-494"/>
+    <hyperlink ref="M44" r:id="rId13"/>
+    <hyperlink ref="M45:M46" r:id="rId14" display="https://srpu.atlassian.net/browse/SGCM-496"/>
+    <hyperlink ref="M49" r:id="rId15"/>
+    <hyperlink ref="M50:M51" r:id="rId16" display="https://srpu.atlassian.net/browse/SGCM-497"/>
+    <hyperlink ref="M54" r:id="rId17"/>
+    <hyperlink ref="M55:M56" r:id="rId18" display="https://srpu.atlassian.net/browse/SGCM-498"/>
+    <hyperlink ref="M59" r:id="rId19"/>
+    <hyperlink ref="M60:M61" r:id="rId20" display="https://srpu.atlassian.net/browse/SGCM-499"/>
+    <hyperlink ref="M64" r:id="rId21"/>
+    <hyperlink ref="M65:M66" r:id="rId22" display="https://srpu.atlassian.net/browse/SGCM-500"/>
+    <hyperlink ref="M70" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -11628,19 +12044,19 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L21 L24:L26 L29:L30 L34:L36 L39:L41</xm:sqref>
+          <xm:sqref>L8:L21 L24:L26 L29:L30 L34:L36 L39:L41 L44:L46 L49:L51 L54:L56 L59:L61 L64:L66 L70:L72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K21 K24:K26 K29:K30 K34:K36 K39:K41</xm:sqref>
+          <xm:sqref>K7:K21 K24:K26 K29:K30 K34:K36 K39:K41 K44:K46 K49:K51 K54:K56 K59:K61 K64:K66 K70:K72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G87</xm:sqref>
+          <xm:sqref>G7:G88</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuraciones.xlsx
+++ b/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuraciones.xlsx
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="30" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="148">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Cuenta de Estatus de Prueba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartado de configuración </t>
   </si>
   <si>
     <t xml:space="preserve">Proyecto: Sistema de Gestión de Credito a Municipios </t>
@@ -554,6 +551,60 @@
   </si>
   <si>
     <t>https://srpu.atlassian.net/browse/SGCM-501</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-503</t>
+  </si>
+  <si>
+    <t>Se realizaron tres elementos y ninguno se ve reflejado en pantalla, sin embargo envía mensaje de configuración exitoso</t>
+  </si>
+  <si>
+    <t>Se edito un elemento previamente pero no guardo cambios y no se reflejan cambios en pantalla  sin embargo envía mensaje de confirmación</t>
+  </si>
+  <si>
+    <t>No elimino elemento seleccionado</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-507</t>
+  </si>
+  <si>
+    <t>Se edito un elemento previamente pero no guardo cambios y no se reflejan cambios en pantalla sin embargo envía mensaje de confirmación</t>
+  </si>
+  <si>
+    <t>No elimino elemento seleccionado, no se refleja en pantalla</t>
+  </si>
+  <si>
+    <t>Ingresa a la ip correspondiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa con la credencial asignada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa a la plataforma que corresponde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regresa al los menús del catálogo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al menú inicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al apartado configuración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingresa al </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al catálogo correspondiente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir mayúsculas y Minúsculas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendiente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartado de Configuración </t>
   </si>
 </sst>
 </file>
@@ -917,6 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -980,7 +1032,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -1071,40 +1122,17 @@
               <a:rPr lang="es-MX" sz="1800">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Configuración-&gt; Catálogos</a:t>
+              <a:t>Configuración</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="es-MX" sz="1800">
+              <a:rPr lang="es-MX" sz="1800" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>PABMI</a:t>
+              <a:t> - SGCM</a:t>
             </a:r>
+            <a:endParaRPr lang="es-MX" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1135,6 +1163,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1628,7 +1657,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1692,7 +1723,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1756,7 +1789,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1877,7 +1912,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1898,7 +1935,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1919,7 +1958,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -2002,13 +2043,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,6 +2223,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2340,8 +2382,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.7032476706302647E-2"/>
-          <c:y val="0.1315509693558474"/>
+          <c:x val="5.6921104937640507E-2"/>
+          <c:y val="2.4199360271881971E-3"/>
           <c:w val="0.90138830770502421"/>
           <c:h val="0.79638332028383885"/>
         </c:manualLayout>
@@ -2400,23 +2442,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$25:$A$26</c:f>
+              <c:f>GRAFICOS!$A$25:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Tarea por hacer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>En Curso</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$25:$B$26</c:f>
+              <c:f>GRAFICOS!$B$25:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2570,6 +2618,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2690,6 +2739,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3339,8 +3389,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.9889264463425781E-2"/>
-          <c:y val="0.11249002514059614"/>
+          <c:x val="1.9722420697350827E-2"/>
+          <c:y val="1.141437855147381E-2"/>
           <c:w val="0.86906607524539548"/>
           <c:h val="0.78287642154004666"/>
         </c:manualLayout>
@@ -3398,27 +3448,188 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$49:$A$50</c:f>
+              <c:f>GRAFICOS!$A$49:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jose Angel Pérez</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$49:$B$50</c:f>
+              <c:f>GRAFICOS!$B$49:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A312-4866-9CD0-0EF01A2514E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GRAFICOS!$C$47:$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarea por hacer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GRAFICOS!$A$49:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jose Angel Pérez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GRAFICOS!$C$49:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAFB-47C1-B9C1-DC9C44B2CA2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GRAFICOS!$D$47:$D$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>En Curso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GRAFICOS!$A$49:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jose Angel Pérez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GRAFICOS!$D$49:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AAFB-47C1-B9C1-DC9C44B2CA2E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3563,6 +3774,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5526,13 +5738,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>17627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>768788</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:rowOff>97637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5562,13 +5774,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>118570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577960</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:rowOff>160480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5634,13 +5846,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45120.463650694444" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="218">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45132.664130787038" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N43" sheet="Catálogos"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="36"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="13"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5655,34 +5867,36 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Acción" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
         <s v="Realizado"/>
         <s v="Error"/>
         <s v="Pendiente"/>
-        <m/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
+      <sharedItems longText="1"/>
     </cacheField>
     <cacheField name="Resultado Esperado" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="N° de Indicente" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Desarrollador" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
+      <sharedItems containsBlank="1" count="3">
         <m/>
-        <s v="Noe Treviño"/>
+        <s v="Jose Angel Pérez"/>
+        <s v="Noe Treviño" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
+      <sharedItems containsBlank="1" count="3">
         <m/>
+        <s v="En Curso"/>
         <s v="Tarea por hacer"/>
       </sharedItems>
     </cacheField>
@@ -5690,7 +5904,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Fecha " numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-07-05T00:00:00" maxDate="2023-07-14T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-07-20T00:00:00" maxDate="2023-07-22T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5702,118 +5916,118 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="218">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio wed"/>
     <s v="http://10.200.4.106 "/>
-    <s v="Verificador "/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Ingreso Correctamente al sistema"/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <s v="Ingresa a la ip correspondiente"/>
+    <s v="Ingresar al sistema "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
     <n v="2"/>
     <s v="Ingresar las Credenciales "/>
     <s v="irisc"/>
-    <s v="Verificador "/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Ingreso correctamente con el usuario correspondiente "/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <s v="Ingresa con la credencial asignada "/>
+    <s v="Ingresar con la credenciale asignada"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
     <n v="3"/>
-    <s v="Aplicación PABMI"/>
-    <s v="PABMI"/>
-    <s v="Verificador "/>
+    <s v="Aplicación "/>
+    <s v="SGCM"/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Se ingresa al sistema PABMI, se despliega el menú donde se presentan todas las opciones, se localiza un problema de ortografía en la opción de Catálogos."/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-496"/>
-    <d v="2023-07-07T00:00:00"/>
+    <s v="Ingresa a la plataforma que corresponde "/>
+    <s v="Ingresar a la plataforma asignada"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
     <n v="4"/>
     <s v="Principal "/>
     <s v="Menú Inicio"/>
-    <s v="Verificador "/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Despliegue"/>
-    <x v="1"/>
-    <s v="Se ingresa al sistema PABMI, se despliega el menú donde se presentan todas las opciones, se selecciona la opción de “Configuración” enseguida se muestra un nuevo menú con dos opciones y se elige la opción de Catálogos, al dar clic se espera que el menú inicial se cierre, pero este no lo hace se queda en pantalla y se tiene que dar clic en la parte derecha para que se cierre"/>
-    <s v="Despliegue de menú"/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-519"/>
-    <d v="2023-07-07T00:00:00"/>
+    <x v="0"/>
+    <s v="Regresa al los menús del catálogo "/>
+    <s v="Despliegue  a la plataforma asignada"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
     <n v="5"/>
     <s v="Inicio"/>
     <s v="Inicio "/>
-    <s v="Verificador "/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Inicio "/>
-    <x v="1"/>
-    <s v="Al querer regresar al menú inicio no ejecuta la acción "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-520"/>
-    <d v="2023-07-07T00:00:00"/>
+    <x v="0"/>
+    <s v="Ingresa al menú inicio "/>
+    <s v="Ingresar al Menú principal "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
     <n v="6"/>
     <s v="Configuración "/>
-    <s v="Catálogos "/>
-    <s v="Verificador "/>
+    <s v="Configuración "/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Ingreso Correctamente "/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <s v="Ingresa al apartado configuración "/>
+    <s v="Ingresar apartado configuración "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
     <n v="7"/>
     <s v="Catálogos "/>
-    <s v="Empleados"/>
-    <s v="Verificador "/>
+    <s v="Claves de inscripción "/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Ingreso Correctamente "/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <s v="Ingresa al catálogo correspondiente "/>
+    <s v="Ingresar al apartado correctamente "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5823,13 +6037,13 @@
     <m/>
     <s v="Agregar"/>
     <x v="1"/>
-    <s v="Error al intentar guardar registro en Catálogo de empleados "/>
-    <m/>
+    <s v="No permite agregar un nuevo registro arroja mensaje de error"/>
+    <s v="Agregar Registro "/>
     <m/>
     <x v="1"/>
     <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-498"/>
-    <d v="2023-07-07T00:00:00"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-487"/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5838,110 +6052,62 @@
     <m/>
     <m/>
     <s v="Eliminar"/>
+    <x v="1"/>
+    <s v="Se intento borrar un registro ya realizado previamente pero no se guardaron los cambios y no se borro el registro requerido _x000a_ Envía mensaje de confirmación exitosa _x000a_Ajustar el color del botón Eliminar _x000a_Borrar la el apostrofe que esta antes del signo de interrogación cerrado "/>
+    <s v="Eliminar Registro "/>
+    <m/>
+    <x v="1"/>
     <x v="2"/>
-    <m/>
-    <m/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-487"/>
+    <d v="2023-07-21T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="1"/>
+    <s v="Se intento editar un registro ya realizado previamente pero no se guardaron los cambios _x000a_ Envía mensaje de confirmación exitosa _x000a_Ajustar el color del botón editar"/>
+    <s v="Editar Registro "/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-487"/>
+    <d v="2023-07-21T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ortografía"/>
+    <x v="0"/>
+    <s v="No presenta errores ortograficos"/>
+    <s v="Sin Faltas de Ortografía"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Filtros"/>
-    <x v="2"/>
-    <s v="Catálogos_x000a_Empleados _x000a_Filtros _x000a_ Descripción de los filtros en Inglés _x000a_Columnas no ejecuta los swich Activado y desactivado _x000a_Como no se pudo agregar un  registro no se ejecuto el correcto filtrado ya que no hay  opciones a escoger"/>
-    <s v="Filtrado Correcto "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-526"/>
-    <d v="2023-07-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Se presentan problemas de ortografía al ingresar al catálogo de empleados.-Texto en ingles -Falta separar el texto -validar si los campos iniciales se quedaran como Cve o se indicara un dato más claro para el usuario."/>
-    <s v="Despliegue de menú"/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-496"/>
-    <d v="2023-07-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento._x000a__x000a_Cómo debería nombrarse el nombre del documento descargado?_x000a__x000a_Revisar la abreviatura de la (Clave)"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-524"/>
-    <d v="2023-07-07T00:00:00"/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <n v="8"/>
     <s v="Catálogos "/>
-    <s v="Tipo de Dependencias "/>
-    <s v="Verificador "/>
+    <s v="Destinos "/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="Pantalla principal Se visualiza la palabra descripción sin acento, palabras en ingles "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-524"/>
-    <d v="2023-07-07T00:00:00"/>
+    <x v="0"/>
+    <s v="Ingresa al catálogo correspondiente "/>
+    <s v="Ingresar al apartado correctamente "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5950,14 +6116,14 @@
     <m/>
     <m/>
     <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Se ingresa a la pantalla de Detalle de Tipo Dependencias y al intentar guardar un registro se presenta mensaje de error:"/>
+    <x v="0"/>
+    <s v="ingresa al "/>
     <s v="Agregar Registro "/>
     <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-499"/>
-    <d v="2023-07-07T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5966,94 +6132,62 @@
     <m/>
     <m/>
     <s v="Eliminar"/>
+    <x v="1"/>
+    <s v="Ajustar color en los Botones Editar y Eliminar Registros"/>
+    <s v="Eliminar Registro "/>
+    <m/>
+    <x v="1"/>
     <x v="2"/>
-    <m/>
-    <m/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-488"/>
+    <d v="2023-07-21T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="1"/>
+    <s v="Ajustar color en los Botones Editar y Eliminar Registros"/>
+    <s v="Editar Registro "/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-488"/>
+    <d v="2023-07-21T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ortografía"/>
+    <x v="2"/>
+    <s v="Definir mayúsculas y Minúsculas "/>
+    <s v="Sin Faltas de Ortografía"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Presenta Errores Ortograficos "/>
-    <s v="Sin errores ortograficos "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento._x000a__x000a_Cómo debería nombrarse el nombre del documento descargado?_x000a__x000a_Revisar la abreviatura de la (Clave)"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-525"/>
-    <d v="2023-07-07T00:00:00"/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <n v="9"/>
     <s v="Catálogos "/>
-    <s v="Puestos"/>
-    <s v="Verificador "/>
+    <s v="Días del Ejercicio "/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingreso Correctamente "/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <x v="2"/>
+    <s v="Ingresa al catálogo correspondiente "/>
+    <s v="Ingresar al apartado correctamente "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6063,13 +6197,13 @@
     <m/>
     <s v="Agregar"/>
     <x v="1"/>
-    <s v="Ortografía Descripción_x000a__x000a_El mensaje de confirmación es muy breve se recomienda:_x000a__x000a_¡El registro ha sido creado!_x000a__x000a_¡Registro creado exitosamente!_x000a__x000a_Al guardar sin colocar ningún dato el mensaje de alerta lo coloca a tras de pantalla activa_x000a__x000a_Das clic fuera de la pantalla y se muestra el mensaje"/>
+    <s v="Ajustar redacción mensajes de alertas"/>
     <s v="Agregar Registro "/>
     <m/>
     <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-500"/>
-    <d v="2023-07-05T00:00:00"/>
+    <x v="2"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-489"/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6079,13 +6213,13 @@
     <m/>
     <s v="Eliminar"/>
     <x v="1"/>
-    <s v="Tooltip descriptivos solo poner Eliminar_x000a__x000a_Ajustar la redacción del mensaje de confirmación_x000a__x000a_¿Estas seguro de querer eliminar el registro?_x000a__x000a_Ajustar Color en los botones_x000a__x000a_1 Fila seleccionada / esta escrito en inglés_x000a__x000a_Modificar el mensaje usar signos de Exclamación y acento."/>
-    <s v="Eliminar registro "/>
+    <s v="Ajustar redacción mensajes de alertas"/>
+    <s v="Eliminar Registro "/>
     <m/>
     <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-501"/>
-    <d v="2023-07-05T00:00:00"/>
+    <x v="2"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-489"/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6094,14 +6228,14 @@
     <m/>
     <m/>
     <s v="Editar"/>
-    <x v="0"/>
-    <s v="Tooltip descriptivo solo poner Editar "/>
-    <s v="Edita registro"/>
-    <m/>
     <x v="1"/>
+    <s v="Ajustar redacción mensajes de alertas"/>
+    <s v="Editar Registro "/>
+    <m/>
     <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-502"/>
-    <d v="2023-07-05T00:00:00"/>
+    <x v="2"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-489"/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6109,63 +6243,31 @@
     <m/>
     <m/>
     <m/>
-    <s v="Cancelar"/>
+    <s v="Ortografía"/>
     <x v="0"/>
-    <m/>
-    <m/>
+    <s v="Definir mayúsculas y Minúsculas "/>
+    <s v="Sin Faltas de Ortografía"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Palabras sin acentos "/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento. _x000a_Cómo debería nombrarse el nombre del documento descargado? _x000a_Revisar la abreviatura de la (Clave) "/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-503"/>
-    <d v="2023-07-06T00:00:00"/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <n v="10"/>
     <s v="Catálogos "/>
-    <s v="Procesos"/>
-    <s v="Verificador "/>
+    <s v="Entes Públicos Obligados "/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="Al ingresar al modulo procesos marca error / Catálogos _x000a_Rutas Arriba de Catálogos _x000a_Al darle a tras en cada uno de los apartados _x000a_Arroja un error y te saca del sistema _x000a_No están correctamente vinculados  _x000a_Se visualiza Usuarios en el apartado de configuraciones "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-517"/>
-    <d v="2023-07-06T00:00:00"/>
+    <x v="0"/>
+    <s v="Ingresa al catálogo correspondiente "/>
+    <s v="Ingresar al apartado correctamente "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6175,13 +6277,13 @@
     <m/>
     <s v="Agregar"/>
     <x v="1"/>
-    <s v="Al querer agregar un registro arroja un error no identificado."/>
+    <s v="tooltip descriptivo "/>
     <s v="Agregar Registro "/>
     <m/>
     <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-518  / https://pabmi.atlassian.net/browse/PABMI-520"/>
-    <d v="2023-07-06T00:00:00"/>
+    <x v="2"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-492"/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6190,14 +6292,30 @@
     <m/>
     <m/>
     <s v="Eliminar"/>
+    <x v="1"/>
+    <s v="Se eliminó elemento que ya había sigo  previamente agregado (Se eliminó China) _x000a_ Envía mensaje de confirmación exitosa _x000a_Ajustar el color del botón Eliminar _x000a_Ajustar Mayúsculas &quot;Entes Públicos Obligados&quot; _x000a_Ajustar color en botón o"/>
+    <s v="Eliminar Registro "/>
+    <m/>
+    <x v="1"/>
     <x v="2"/>
-    <m/>
-    <m/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-492"/>
+    <d v="2023-07-21T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="1"/>
+    <s v="Se edito un elemento previamente  agregado  pero no guardo cambios _x000a_ Envía &quot;error&quot;  mensaje de confirmación  _x000a_Ajustar el color del botón editar_x000a_Ajustar el mensaje de alerta cuando no se agrega información en los campos y das clic en botón aceptar_x000a_Dice:  Error Ha sucedido un error, inténtelo de nuevo _x000a_Debería decir: ¡Error! Favor de completar los campos ó también dar la opción de no habilitar el botón aceptar hasta que se haya llenado los campos ._x000a_"/>
+    <s v="Editar Registro "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <m/>
-    <m/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-492"/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6205,77 +6323,29 @@
     <m/>
     <m/>
     <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <s v="Ortografía"/>
+    <x v="0"/>
+    <s v="Definir mayúsculas y Minúsculas "/>
+    <s v="Sin Faltas de Ortografía"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Presenta Errores Ortograficos "/>
-    <s v="Sin errores ortograficos "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-519"/>
-    <d v="2023-07-06T00:00:00"/>
   </r>
   <r>
     <n v="11"/>
     <s v="Catálogos "/>
-    <s v="Nivel de Reportes"/>
-    <s v="Verificador "/>
+    <s v="Estatus"/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="Pantalla Principal Niveles de reporte se visualizan errores ortograficos, falta de tooltips descriptivos, palabras en inglés"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+    <s v="Ingresa al catálogo correspondiente "/>
+    <s v="Ingresar al apartado correctamente "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6286,14 +6356,14 @@
     <m/>
     <m/>
     <s v="Agregar"/>
-    <x v="3"/>
-    <s v="Al intentar agregar un registro No se puedo guardar_x000a__x000a_Quedaran pendientes editar, eliminar de pruebas el apartado de acciones_x000a__x000a_Presenta errores de ortografía en la palabra descripción"/>
+    <x v="1"/>
+    <s v="Se guardo un nuevo elemento,  se genera en la pantalla principal , arroja mensaje de confirmación exitoso.  ¿Es Elemento o descripción ? ya que al agregar un nuevo elemento dice &quot; Nuevo elemento&quot; Pero en mensaje de Confirmación dice Descripción"/>
     <s v="Agregar Registro "/>
     <m/>
     <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-521"/>
-    <d v="2023-07-07T00:00:00"/>
+    <x v="2"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-493"/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6302,89 +6372,57 @@
     <m/>
     <m/>
     <s v="Eliminar"/>
+    <x v="1"/>
+    <s v="Ajustar el color del botón Eliminar _x000a_Ajustar color en botón ok"/>
+    <s v="Eliminar Registro "/>
+    <m/>
+    <x v="1"/>
     <x v="2"/>
-    <m/>
-    <m/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-493"/>
+    <d v="2023-07-21T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="1"/>
+    <s v="Ajustar el color del botón Editar _x000a_Ajustar color en botón ok"/>
+    <s v="Editar Registro "/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-493"/>
+    <d v="2023-07-21T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ortografía"/>
+    <x v="0"/>
+    <s v="Definir mayúsculas y Minúsculas "/>
+    <s v="Sin Faltas de Ortografía"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-519"/>
-    <d v="2023-07-07T00:00:00"/>
   </r>
   <r>
     <n v="12"/>
     <s v="Catálogos "/>
-    <s v="Área"/>
-    <s v="Verificador "/>
+    <s v="Fuentes de Pago "/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="Pantalla Principal Area se visualizan errores ortograficos, falta de tooltips descriptivos, palabras en inglés"/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <x v="0"/>
+    <s v="Ingresa al catálogo correspondiente "/>
+    <s v="Ingresar al apartado correctamente "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -6399,13 +6437,13 @@
     <m/>
     <s v="Agregar"/>
     <x v="1"/>
-    <s v="Al intentar agregar un registro No se puedo guardar_x000a__x000a_Quedaran pendientes editar, eliminar de pruebas el apartado de acciones_x000a__x000a_Presenta errores de ortografía en la palabra descripción_x000a__x000a_Agregar acento (Área)_x000a__x000a_Al dejar los campos vacíos el mensaje de alerta lo arroja atrás de la pantalla."/>
+    <s v="Ajustar el mensaje de alerta cuando no se agrega información en los campos y das clic en botón aceptar"/>
     <s v="Agregar Registro "/>
     <m/>
     <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-522"/>
-    <d v="2023-07-07T00:00:00"/>
+    <x v="2"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-494"/>
+    <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6414,2777 +6452,57 @@
     <m/>
     <m/>
     <s v="Eliminar"/>
+    <x v="1"/>
+    <s v="Ajustar el color del botón Eliminar_x000a_Ajustar color en botón ok"/>
+    <s v="Eliminar Registro "/>
+    <m/>
+    <x v="1"/>
     <x v="2"/>
-    <m/>
-    <m/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-494"/>
+    <d v="2023-07-21T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Editar"/>
+    <x v="1"/>
+    <s v="Ajustar el color del botón editar / justar color en botón ok_x000a_Ajustar el mensaje de alerta cuando no se agrega información en los campos y das clic en botón aceptar"/>
+    <s v="Editar Registro "/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-494"/>
+    <d v="2023-07-21T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Ortografía"/>
+    <x v="0"/>
+    <s v="Definir mayúsculas y Minúsculas "/>
+    <s v="Sin Faltas de Ortografía"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Agregar acentos en Área, Descripción, Menú (Tooltip)_x000a__x000a_Presenta palabras en ingles en los filtros de columnas y filtros al igual que los tooltips_x000a__x000a_Definir el uso de mayúsculas y minúsculas al iniciar el enunciado o palabra Ejemplo Acciones"/>
-    <s v="Sin errores ortograficos "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-523"/>
-    <d v="2023-07-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="Catálogos _x000a_Área _x000a_Exportar_x000a_La columna acciones no debería aparecer en la descarga del documento. _x000a_Cómo debería nombrarse el nombre del documento descargado? _x000a_Revisar la abreviatura de la (Clave) "/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-527"/>
-    <d v="2023-07-07T00:00:00"/>
   </r>
   <r>
     <n v="13"/>
     <s v="Catálogos "/>
-    <s v="Secretarías"/>
-    <s v="Verificador "/>
+    <s v="Fuentes Alternas de Pago "/>
+    <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="Pantalla Principal Area se visualizan errores ortograficos, falta de tooltips descriptivos, palabras en inglés"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-07-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Error al querer agregar un registro botón guardar no ejecuta la acción_x000a__x000a_Agregar acento en la palabra Secretarías y Descripción_x000a__x000a_Al dejar los campos vacíos el mensaje de alerta lo arroja atrás de la pantalla"/>
-    <s v="Agregar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-528"/>
-    <d v="2023-07-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Palabras sin acentos Descripción, Secretarías / Palabras en ingles "/>
-    <s v="Sin errores ortograficos "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-530"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="_x000a_Exportar_x000a_La columna acciones no debería aparecer en la descarga del documento. _x000a_Cómo debería nombrarse el nombre del documento descargado? _x000a_Revisar la abreviatura de la (Clave) "/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-531"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <s v="Catálogos "/>
-    <s v="Entidades Federativas"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="Pantalla Principal Area se visualizan errores ortograficos, falta de tooltips descriptivos, palabras en inglés"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-532"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="En pantalla principal no se aprecia el botón agregar_x000a__x000a_Quedaran pendientes editar, eliminar de pruebas el apartado de acciones_x000a__x000a_No hay filas seleccionadas aparece en ingles_x000a__x000a_No aparece el campo de acciones_x000a__x000a_No hay tooltips descriptivos en ninguno de los campos"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-532"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="1"/>
-    <s v="Botón Cancelar esta vinculado con botón agregar"/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-533"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento, Cómo debería nombrarse el nombre del documento descargado? Revisar la abreviatura de la (Clave)"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-534"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Clasificación "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="Pantalla Principal Area se visualizan errores ortograficos, falta de tooltips descriptivos, palabras en inglés"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-535"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Error al querer guardar el registro, no lo guarda_x000a__x000a_Quedaran pendientes editar, eliminar de pruebas el apartado de acciones_x000a__x000a_No hay filas seleccionadas aparece en ingles_x000a__x000a_No aparece el campo de acciones_x000a__x000a_No hay tooltips descriptivos en ninguno de los campos_x000a__x000a_Mensaje de error se visualiza en la parte de atrás de la pantalla"/>
-    <s v="Agregar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-536"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Palabras sin acentos Descripción,  / Palabras en ingles"/>
-    <s v="Sin errores ortograficos "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-538"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento._x000a__x000a_¿Cómo debería nombrarse el nombre del documento descargado?_x000a__x000a_Revisar la abreviatura de la (Clave)"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-537"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <s v="Catálogos "/>
-    <s v="Reportes"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="En Pantalla Principal del modulo Tipo de Clasificación se visualizan errores ortográficos, falta de tooltips descriptivos, palabras en inglés"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-539"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Error al querer guardar el registro, no lo guarda_x000a__x000a_La palabra descripción no tiene acento_x000a__x000a_Tipo de Reporte no despliega ninguna opción_x000a__x000a_Quedaran pendientes editar, eliminar de pruebas el apartado de acciones_x000a__x000a_Mensaje de alerta se refleja tras de la pantalla y no al frente"/>
-    <s v="Agregar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-540"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Palabras sin acentos Descripción,  / Palabras en ingles"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-541"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento._x000a__x000a_¿Cómo debería nombrarse el nombre del documento descargado?_x000a__x000a_Revisar la abreviatura de la (Clave)"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-542"/>
-    <d v="2023-07-10T00:00:00"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <s v="Catálogos "/>
-    <s v="Transacciones"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="En Pantalla Principal del modulo verificación se visualizan errores ortográficos, falta de tooltips descriptivos, palabras en inglés"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-550"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Fallo al querer guardar el registro, no lo guarda_x000a_La palabra descripción no tiene acento_x000a_Quedaran pendientes editar, eliminar de pruebas el apartado de acciones_x000a_Mensaje de alerta se refleja tras de la pantalla y no al frente_x000a_Mensaje de error se visualiza en la parte de atrás de la pantalla al no competa los campos"/>
-    <s v="Agregar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-551"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Agregar acentos Descripción, Catálogo Menú (Tooltip)_x000a_Presenta palabras en ingles en los filtros de columnas y filtros al igual que los tooltips_x000a_Definir el uso de mayúsculas y minúsculas al iniciar el enunciado o palabra Ejemplo Acciones_x000a_"/>
-    <s v="Sin errores ortograficos "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-552"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento._x000a_¿Cómo debería nombrarse el nombre del documento descargado?_x000a_Revisar la abreviatura de la (Clave)"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-553"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <s v="Catálogos "/>
-    <s v="Dependencias"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="En Pantalla Principal del modulo verificación se visualizan errores ortográficos, falta de tooltips descriptivos, palabras en inglés_x000a_No se visualiza el apartado de rutas_x000a_El campo de acciones no se visualiza"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-554"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Fallo al querer guardar el registro, no lo guarda ya que no se completan los campos, no hay información para selección en Tipo de Dependencia, Secretaría, y Tipo de Dependencias_x000a_Mensaje de alerta se refleja tras de la pantalla y no al frente_x000a_En el apartado de Teléfono (agregar un numero de caracteres de 10 números ) No es necesario agregar un campo numérico"/>
-    <s v="Agregar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-555"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Agregar acentos Descripción, Dirección Menú (Tooltip)_x000a_Presenta palabras en ingles en los filtros de columnas y filtros al igual que los tooltips_x000a_Definir el uso de mayúsculas y minúsculas al iniciar el enunciado o palabra Ejemplo Acciones"/>
-    <s v="Sin errores ortograficos "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-556   Titulos https://pabmi.atlassian.net/browse/PABMI-557"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento._x000a_¿Cómo debería nombrarse el nombre del documento descargado?"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-558"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <s v="Catálogos "/>
-    <s v="Municipios"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="En Pantalla Principal del modulo municipios se visualizan, falta de tooltips descriptivos, palabras en inglés_x000a_No se visualiza titulo del módulo_x000a_El campo de acciones no se visualiza"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-559"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Fallo al querer guardar el registro, no lo guarda._x000a_Detalle de perfil no seria mejor detalle de Municipio como en en los anteriores_x000a_Mensaje de alerta se refleja tras de la pantalla y no al frente_x000a_Quedaran pendientes editar, eliminar para pruebas en el apartado de acciones"/>
-    <s v="Agregar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-560"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="No Rows en ingles cambia a español / No se han encontrado datos"/>
-    <s v="Sin errores ortograficos "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-562"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento. _x000a_¿Cómo debería nombrarse el nombre del documento descargado? _x000a_"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-563"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <s v="Catálogos "/>
-    <s v="Notificaciones"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="En Pantalla Principal del modulo Notificaciones se visualizan, falta de tooltips descriptivos, palabras en inglés_x000a_Se visualiza titulo del módulo pero no se aprecia la ruta de salida al menú principal_x000a_El campo de acciones no se visualiza_x000a_Se aprecia demasiado espacio de separación entre campos"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-563"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Fallo al querer guardar el registro, no lo guarda._x000a_Titulo de la pantalla agregar registro debería decir Detalle de Notificaciones como los demás módulos_x000a_Mensaje de alerta se refleja tras de la pantalla y no al frente_x000a_Quedaran pendientes editar, eliminar para pruebas en el apartado de acciones"/>
-    <s v="Agregar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-565"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="No Rows en ingles cambia a español / No se han encontrado datos_x000a_Descripcion / Descripción"/>
-    <s v="Sin errores ortograficos "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-566"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento. _x000a_¿Cómo debería nombrarse el nombre del documento descargado? _x000a_"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-567"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <s v="Catálogos "/>
-    <s v="Proveedores"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="En Pantalla Principal del modulo notificaciones se visualizan, falta de tooltips descriptivos, palabras en inglés_x000a__x000a_Se visualiza titulo del módulo pero no se aprecia la ruta de salida al menú principal_x000a__x000a_El campo de acciones no se visualiza_x000a__x000a_Se aprecia demasiado espacio de separación entre campos"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-568"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Fallo al querer guardar el registro, no lo guarda._x000a_Titulo de la pantalla agregar registro debería decir Detalle de Notificaciones como los demás módulos_x000a_Mensaje de alerta se refleja tras de la pantalla y no al frente_x000a_Quedaran pendientes editar, eliminar para pruebas en el apartado de acciones"/>
-    <s v="Agregar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-569"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="No Rows en ingles cambia a español / No se han encontrado datos_x000a_Descripcion / Descripción "/>
-    <s v="Sin errores ortograficos "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-570"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento. _x000a_¿Cómo debería nombrarse el nombre del documento descargado? _x000a_"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-571"/>
-    <d v="2023-07-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <s v="Catálogos "/>
-    <s v="Titular"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="En Pantalla Principal del modulo Titular se visualizan errores ortográficos, falta de tooltips descriptivos, palabras en inglés_x000a_No tiene titulo_x000a_El campo de acciones no se visualiza"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-572"/>
-    <d v="2023-07-13T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Fallo al querer guardar el registro, no lo guarda._x000a_Mensaje de alerta se refleja tras de la pantalla y no al frente si no se llena los campos_x000a_Quedaran pendientes editar, eliminar para pruebas en el apartado de acciones_x000a_Agregar acento en la palabra descripción"/>
-    <s v="Agregar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-573"/>
-    <d v="2023-07-13T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela el registro "/>
-    <s v="Cancela el registro"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="No Rows en ingles cambia a español / No se han encontrado datos_x000a_Descripcion / Descripción"/>
-    <s v="Sin errores ortograficos "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-574"/>
-    <d v="2023-07-13T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="La columna acciones no debería aparecer en la descarga del documento._x000a_¿Cómo debería nombrarse el nombre del documento descargado?"/>
-    <s v="Exporta Descarga de documento "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-575"/>
-    <d v="2023-07-13T00:00:00"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <s v="Catálogos "/>
-    <s v="Presentación Muebles "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="24"/>
-    <s v="Catálogos "/>
-    <s v="Activo"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="25"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Proceso"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="26"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Transacción"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="27"/>
-    <s v="Catálogos "/>
-    <s v="Modelos"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="28"/>
-    <s v="Catálogos "/>
-    <s v="Tipos de Activo Fijo "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="29"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Bien"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="30"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Proveedor"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="31"/>
-    <s v="Catálogos "/>
-    <s v="Motivos de Baja"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="32"/>
-    <s v="Catálogos "/>
-    <s v="Estatus de Resguardos"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="33"/>
-    <s v="Catálogos "/>
-    <s v="Líneas"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="34"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Comprobante"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="35"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Reportes"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="36"/>
-    <s v="Catálogos "/>
-    <s v="Marcas"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
+    <s v="Ingresa al apartado correctamente "/>
+    <s v="Ingresar al apartado correctamente "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -9195,8 +6513,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -9210,8 +6528,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -9222,9 +6541,15 @@
   <rowFields count="1">
     <field x="11"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -9260,7 +6585,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -9274,7 +6599,7 @@
         <item x="1"/>
         <item x="2"/>
         <item x="0"/>
-        <item h="1" x="3"/>
+        <item h="1" m="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9369,8 +6694,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A47:E51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9383,15 +6708,17 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
+        <item x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -9402,9 +6729,12 @@
   <rowFields count="1">
     <field x="10"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="3">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -9413,9 +6743,15 @@
   <colFields count="1">
     <field x="11"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="4">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -9716,10 +7052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9740,94 +7076,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="A1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="32" t="s">
+      <c r="A3" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -9884,7 +7220,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -9895,9 +7231,11 @@
       <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="I7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" s="14"/>
       <c r="M7" s="15"/>
@@ -9916,7 +7254,7 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -9927,9 +7265,11 @@
       <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="I8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2"/>
       <c r="M8" s="15"/>
@@ -9942,13 +7282,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -9959,9 +7299,11 @@
       <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="I9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2"/>
       <c r="M9" s="15"/>
@@ -9980,7 +7322,7 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -9991,9 +7333,11 @@
       <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="I10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2"/>
       <c r="M10" s="15"/>
@@ -10012,7 +7356,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -10023,9 +7367,11 @@
       <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="I11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="2"/>
       <c r="M11" s="15"/>
@@ -10044,7 +7390,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -10055,9 +7401,11 @@
       <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="I12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2"/>
       <c r="M12" s="15"/>
@@ -10066,19 +7414,19 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
+      <c r="A13" s="25">
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -10087,8 +7435,11 @@
       <c r="G13" t="s">
         <v>19</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="1">
@@ -10096,11 +7447,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
@@ -10108,30 +7459,30 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
         <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N14" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="3" t="s">
         <v>28</v>
       </c>
@@ -10139,10 +7490,10 @@
         <v>33</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s">
         <v>46</v>
@@ -10151,18 +7502,18 @@
         <v>36</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N15" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
@@ -10170,10 +7521,10 @@
         <v>33</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
         <v>46</v>
@@ -10182,18 +7533,18 @@
         <v>36</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N16" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
@@ -10201,10 +7552,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="1">
@@ -10212,19 +7563,19 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="A18" s="25">
         <v>8</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="23" t="s">
+      <c r="C18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -10234,10 +7585,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="1">
@@ -10245,19 +7596,22 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
       </c>
+      <c r="H19" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="1">
@@ -10265,11 +7619,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="3" t="s">
         <v>28</v>
       </c>
@@ -10277,10 +7631,10 @@
         <v>33</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" t="s">
@@ -10290,18 +7644,18 @@
         <v>36</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N20" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
@@ -10309,10 +7663,10 @@
         <v>33</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s">
         <v>46</v>
@@ -10321,45 +7675,48 @@
         <v>36</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N21" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
       </c>
+      <c r="H22" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N22" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="24">
+      <c r="A23" s="25">
         <v>9</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="23" t="s">
+      <c r="C23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -10368,19 +7725,22 @@
       <c r="G23" t="s">
         <v>34</v>
       </c>
+      <c r="H23" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N23" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="3" t="s">
         <v>27</v>
       </c>
@@ -10388,10 +7748,10 @@
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
@@ -10400,18 +7760,18 @@
         <v>36</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N24" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
@@ -10419,10 +7779,10 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s">
         <v>46</v>
@@ -10431,18 +7791,18 @@
         <v>36</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N25" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="3" t="s">
         <v>29</v>
       </c>
@@ -10450,10 +7810,10 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
@@ -10462,45 +7822,48 @@
         <v>36</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N26" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="23"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
       </c>
+      <c r="H27" t="s">
+        <v>145</v>
+      </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N27" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
+      <c r="A28" s="25">
         <v>10</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="23" t="s">
+      <c r="C28" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -10509,19 +7872,22 @@
       <c r="G28" t="s">
         <v>19</v>
       </c>
+      <c r="H28" t="s">
+        <v>144</v>
+      </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N28" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="23"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="3" t="s">
         <v>27</v>
       </c>
@@ -10529,10 +7895,10 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -10541,18 +7907,18 @@
         <v>36</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N29" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="23"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="3" t="s">
         <v>28</v>
       </c>
@@ -10560,10 +7926,10 @@
         <v>33</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s">
         <v>46</v>
@@ -10572,18 +7938,18 @@
         <v>36</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N30" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="231" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="23"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="3" t="s">
         <v>29</v>
       </c>
@@ -10591,48 +7957,51 @@
         <v>33</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="I31" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="N31" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="23"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
       </c>
+      <c r="H32" t="s">
+        <v>145</v>
+      </c>
       <c r="I32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+      <c r="A33" s="25">
         <v>11</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="23" t="s">
+      <c r="C33" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -10641,16 +8010,19 @@
       <c r="G33" t="s">
         <v>19</v>
       </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="23"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="3" t="s">
         <v>27</v>
       </c>
@@ -10658,10 +8030,10 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s">
         <v>46</v>
@@ -10670,18 +8042,18 @@
         <v>36</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N34" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="23"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="3" t="s">
         <v>28</v>
       </c>
@@ -10689,10 +8061,10 @@
         <v>33</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s">
         <v>46</v>
@@ -10701,18 +8073,18 @@
         <v>36</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N35" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="23"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="3" t="s">
         <v>29</v>
       </c>
@@ -10720,10 +8092,10 @@
         <v>33</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
         <v>46</v>
@@ -10732,42 +8104,45 @@
         <v>36</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N36" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="23"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
       </c>
+      <c r="H37" t="s">
+        <v>145</v>
+      </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="24">
+      <c r="A38" s="25">
         <v>12</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="23" t="s">
+      <c r="C38" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -10776,16 +8151,19 @@
       <c r="G38" t="s">
         <v>19</v>
       </c>
+      <c r="H38" t="s">
+        <v>144</v>
+      </c>
       <c r="I38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="23"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="3" t="s">
         <v>27</v>
       </c>
@@ -10793,10 +8171,10 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s">
         <v>46</v>
@@ -10805,18 +8183,18 @@
         <v>36</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N39" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="23"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="3" t="s">
         <v>28</v>
       </c>
@@ -10824,10 +8202,10 @@
         <v>33</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s">
         <v>46</v>
@@ -10836,18 +8214,18 @@
         <v>36</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N40" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="3" t="s">
         <v>29</v>
       </c>
@@ -10855,10 +8233,10 @@
         <v>33</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s">
         <v>46</v>
@@ -10867,42 +8245,45 @@
         <v>36</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N41" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="23"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
       </c>
+      <c r="H42" t="s">
+        <v>145</v>
+      </c>
       <c r="I42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="24">
+      <c r="A43" s="25">
         <v>13</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="23" t="s">
+      <c r="C43" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -10912,18 +8293,18 @@
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="23"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="3" t="s">
         <v>27</v>
       </c>
@@ -10931,10 +8312,10 @@
         <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s">
         <v>46</v>
@@ -10943,18 +8324,18 @@
         <v>36</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N44" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="23"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="3" t="s">
         <v>28</v>
       </c>
@@ -10962,10 +8343,10 @@
         <v>33</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s">
         <v>46</v>
@@ -10974,18 +8355,18 @@
         <v>36</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N45" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="23"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="3" t="s">
         <v>29</v>
       </c>
@@ -10993,10 +8374,10 @@
         <v>33</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s">
         <v>46</v>
@@ -11005,42 +8386,45 @@
         <v>36</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N46" s="1">
         <v>45128</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="23"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
       </c>
+      <c r="H47" t="s">
+        <v>145</v>
+      </c>
       <c r="I47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
+      <c r="A48" s="25">
         <v>14</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="23" t="s">
+      <c r="C48" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -11049,16 +8433,19 @@
       <c r="G48" t="s">
         <v>19</v>
       </c>
+      <c r="H48" t="s">
+        <v>144</v>
+      </c>
       <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="23"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="3" t="s">
         <v>27</v>
       </c>
@@ -11066,10 +8453,10 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s">
         <v>46</v>
@@ -11078,15 +8465,18 @@
         <v>36</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="23"/>
+        <v>113</v>
+      </c>
+      <c r="N49" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="3" t="s">
         <v>28</v>
       </c>
@@ -11094,10 +8484,10 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s">
         <v>46</v>
@@ -11106,15 +8496,18 @@
         <v>36</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="23"/>
+        <v>113</v>
+      </c>
+      <c r="N50" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="3" t="s">
         <v>29</v>
       </c>
@@ -11122,10 +8515,10 @@
         <v>33</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s">
         <v>46</v>
@@ -11134,15 +8527,18 @@
         <v>36</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="23"/>
+        <v>113</v>
+      </c>
+      <c r="N51" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="3" t="s">
         <v>30</v>
       </c>
@@ -11150,26 +8546,26 @@
         <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="25">
         <v>15</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="23" t="s">
+      <c r="C53" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -11178,16 +8574,19 @@
       <c r="G53" t="s">
         <v>19</v>
       </c>
+      <c r="H53" t="s">
+        <v>144</v>
+      </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="23"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="3" t="s">
         <v>27</v>
       </c>
@@ -11195,10 +8594,10 @@
         <v>33</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s">
         <v>46</v>
@@ -11207,26 +8606,29 @@
         <v>36</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="23"/>
+        <v>119</v>
+      </c>
+      <c r="N54" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="24"/>
       <c r="F55" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="42" t="s">
-        <v>118</v>
+      <c r="H55" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s">
         <v>46</v>
@@ -11235,15 +8637,18 @@
         <v>36</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="23"/>
+        <v>119</v>
+      </c>
+      <c r="N55" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="24"/>
       <c r="F56" s="3" t="s">
         <v>29</v>
       </c>
@@ -11251,10 +8656,10 @@
         <v>33</v>
       </c>
       <c r="H56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s">
         <v>46</v>
@@ -11263,39 +8668,45 @@
         <v>36</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="23"/>
+        <v>119</v>
+      </c>
+      <c r="N56" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="24"/>
       <c r="F57" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
       </c>
+      <c r="H57" t="s">
+        <v>145</v>
+      </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="25">
         <v>16</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="23" t="s">
+      <c r="C58" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -11304,16 +8715,19 @@
       <c r="G58" t="s">
         <v>19</v>
       </c>
+      <c r="H58" t="s">
+        <v>144</v>
+      </c>
       <c r="I58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="23"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="24"/>
       <c r="F59" s="3" t="s">
         <v>27</v>
       </c>
@@ -11321,10 +8735,10 @@
         <v>33</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s">
         <v>46</v>
@@ -11333,15 +8747,18 @@
         <v>36</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="23"/>
+        <v>123</v>
+      </c>
+      <c r="N59" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="24"/>
       <c r="F60" s="3" t="s">
         <v>28</v>
       </c>
@@ -11349,10 +8766,10 @@
         <v>33</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s">
         <v>46</v>
@@ -11361,15 +8778,18 @@
         <v>36</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="23"/>
+        <v>123</v>
+      </c>
+      <c r="N60" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="3" t="s">
         <v>29</v>
       </c>
@@ -11377,10 +8797,10 @@
         <v>33</v>
       </c>
       <c r="H61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s">
         <v>46</v>
@@ -11389,39 +8809,45 @@
         <v>36</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="23"/>
+        <v>123</v>
+      </c>
+      <c r="N61" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>19</v>
       </c>
+      <c r="H62" t="s">
+        <v>145</v>
+      </c>
       <c r="I62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="25">
         <v>17</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="23" t="s">
+      <c r="C63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -11430,16 +8856,19 @@
       <c r="G63" t="s">
         <v>19</v>
       </c>
+      <c r="H63" t="s">
+        <v>144</v>
+      </c>
       <c r="I63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="23"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="24"/>
       <c r="F64" s="3" t="s">
         <v>27</v>
       </c>
@@ -11447,10 +8876,10 @@
         <v>33</v>
       </c>
       <c r="H64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s">
         <v>46</v>
@@ -11459,15 +8888,18 @@
         <v>36</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="23"/>
+        <v>126</v>
+      </c>
+      <c r="N64" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="25"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="3" t="s">
         <v>28</v>
       </c>
@@ -11475,10 +8907,10 @@
         <v>33</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s">
         <v>46</v>
@@ -11487,15 +8919,18 @@
         <v>36</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="23"/>
+        <v>126</v>
+      </c>
+      <c r="N65" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="25"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="24"/>
       <c r="F66" s="3" t="s">
         <v>29</v>
       </c>
@@ -11503,10 +8938,10 @@
         <v>33</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s">
         <v>46</v>
@@ -11515,58 +8950,64 @@
         <v>36</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="23"/>
+        <v>126</v>
+      </c>
+      <c r="N66" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="25"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="24"/>
       <c r="F67" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I67" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="23"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="25"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
       </c>
+      <c r="H68" t="s">
+        <v>145</v>
+      </c>
       <c r="I68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="25">
         <v>18</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="23" t="s">
+      <c r="C69" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F69" s="3" t="s">
@@ -11575,16 +9016,19 @@
       <c r="G69" t="s">
         <v>19</v>
       </c>
+      <c r="H69" t="s">
+        <v>144</v>
+      </c>
       <c r="I69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="23"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="25"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="24"/>
       <c r="F70" s="3" t="s">
         <v>27</v>
       </c>
@@ -11592,10 +9036,10 @@
         <v>33</v>
       </c>
       <c r="H70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s">
         <v>46</v>
@@ -11604,15 +9048,18 @@
         <v>36</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="24"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="23"/>
+        <v>129</v>
+      </c>
+      <c r="N70" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="25"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="24"/>
       <c r="F71" s="3" t="s">
         <v>28</v>
       </c>
@@ -11620,10 +9067,10 @@
         <v>33</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s">
         <v>46</v>
@@ -11632,15 +9079,18 @@
         <v>36</v>
       </c>
       <c r="M71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="23"/>
+        <v>129</v>
+      </c>
+      <c r="N71" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="25"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="24"/>
       <c r="F72" s="3" t="s">
         <v>29</v>
       </c>
@@ -11648,10 +9098,10 @@
         <v>33</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s">
         <v>46</v>
@@ -11660,248 +9110,441 @@
         <v>36</v>
       </c>
       <c r="M72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="23"/>
+        <v>129</v>
+      </c>
+      <c r="N72" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="25"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="24"/>
       <c r="F73" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G73" t="s">
         <v>19</v>
       </c>
+      <c r="H73" t="s">
+        <v>145</v>
+      </c>
       <c r="I73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="25">
         <v>19</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E74" s="23" t="s">
+      <c r="C74" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" t="s">
+        <v>144</v>
+      </c>
       <c r="I74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="24"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="23"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="25"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" t="s">
+        <v>114</v>
+      </c>
       <c r="I75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="23"/>
+        <v>78</v>
+      </c>
+      <c r="K75" t="s">
+        <v>46</v>
+      </c>
+      <c r="L75" t="s">
+        <v>36</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N75" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="25"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="I76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="23"/>
+        <v>79</v>
+      </c>
+      <c r="K76" t="s">
+        <v>46</v>
+      </c>
+      <c r="L76" t="s">
+        <v>36</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N76" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="25"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G77" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" t="s">
+        <v>114</v>
+      </c>
       <c r="I77" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="23"/>
+        <v>80</v>
+      </c>
+      <c r="K77" t="s">
+        <v>46</v>
+      </c>
+      <c r="L77" t="s">
+        <v>36</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N77" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="25"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="24"/>
       <c r="F78" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="s">
+        <v>145</v>
+      </c>
       <c r="I78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="25">
         <v>20</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E79" s="23" t="s">
+      <c r="C79" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="s">
+        <v>144</v>
+      </c>
       <c r="I79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="23"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="25"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="I80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="24"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="23"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="25"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="24"/>
       <c r="F81" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G81" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" t="s">
+        <v>133</v>
+      </c>
       <c r="I81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="24"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="23"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="25"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="24"/>
       <c r="F82" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" t="s">
+        <v>132</v>
+      </c>
       <c r="I82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="25"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G83" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" t="s">
+        <v>146</v>
+      </c>
+      <c r="I83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="25"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s">
+        <v>145</v>
+      </c>
+      <c r="I84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="24"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="3" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="25">
+        <v>21</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
+        <v>93</v>
+      </c>
+      <c r="I85" t="s">
+        <v>77</v>
+      </c>
+      <c r="N85" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="25"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="s">
+        <v>131</v>
+      </c>
+      <c r="I86" t="s">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L86" t="s">
+        <v>36</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N86" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="25"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" t="s">
+        <v>136</v>
+      </c>
+      <c r="I87" t="s">
+        <v>79</v>
+      </c>
+      <c r="K87" t="s">
+        <v>46</v>
+      </c>
+      <c r="L87" t="s">
+        <v>36</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N87" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="25"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s">
+        <v>135</v>
+      </c>
+      <c r="I88" t="s">
+        <v>80</v>
+      </c>
+      <c r="K88" t="s">
+        <v>46</v>
+      </c>
+      <c r="L88" t="s">
+        <v>36</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N88" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="25"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="24">
-        <v>21</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="24"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I85" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="24"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I86" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="24"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s">
+        <v>145</v>
+      </c>
+      <c r="I89" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="24"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I88" t="s">
-        <v>82</v>
+      <c r="N89" s="1">
+        <v>45131</v>
       </c>
     </row>
   </sheetData>
@@ -11921,16 +9564,16 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="82">
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="D79:D84"/>
+    <mergeCell ref="E79:E84"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="B74:B78"/>
     <mergeCell ref="C74:C78"/>
@@ -12028,9 +9671,14 @@
     <hyperlink ref="M64" r:id="rId21"/>
     <hyperlink ref="M65:M66" r:id="rId22" display="https://srpu.atlassian.net/browse/SGCM-500"/>
     <hyperlink ref="M70" r:id="rId23"/>
+    <hyperlink ref="M75" r:id="rId24"/>
+    <hyperlink ref="M76" r:id="rId25"/>
+    <hyperlink ref="M77" r:id="rId26"/>
+    <hyperlink ref="M86" r:id="rId27"/>
+    <hyperlink ref="M87:M88" r:id="rId28" display="https://srpu.atlassian.net/browse/SGCM-507"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -12044,19 +9692,19 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L21 L24:L26 L29:L30 L34:L36 L39:L41 L44:L46 L49:L51 L54:L56 L59:L61 L64:L66 L70:L72</xm:sqref>
+          <xm:sqref>L8:L21 L24:L26 L29:L30 L34:L36 L39:L41 L44:L46 L49:L51 L54:L56 L59:L61 L64:L66 L70:L72 L75:L77 L86:L88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K21 K24:K26 K29:K30 K34:K36 K39:K41 K44:K46 K49:K51 K54:K56 K59:K61 K64:K66 K70:K72</xm:sqref>
+          <xm:sqref>K7:K21 K24:K26 K29:K30 K34:K36 K39:K41 K44:K46 K49:K51 K54:K56 K59:K61 K64:K66 K70:K72 K75:K77 K86:K88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G88</xm:sqref>
+          <xm:sqref>G7:G89</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12066,19 +9714,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
     <col min="8" max="8" width="8.625" customWidth="1"/>
@@ -12099,7 +9750,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="17">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -12107,7 +9758,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="18">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -12115,7 +9766,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="18">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -12123,7 +9774,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="19">
-        <v>118</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -12136,21 +9787,33 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="B26" s="18"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>38</v>
       </c>
@@ -12158,7 +9821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>31</v>
       </c>
@@ -12166,26 +9829,57 @@
         <v>40</v>
       </c>
       <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20">
+        <v>15</v>
+      </c>
+      <c r="D50" s="20">
+        <v>1</v>
+      </c>
+      <c r="E50" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20">
+        <v>15</v>
+      </c>
+      <c r="D51" s="20">
+        <v>1</v>
+      </c>
+      <c r="E51" s="20">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" orientation="landscape" r:id="rId4"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="3" scale="62" orientation="landscape" r:id="rId4"/>
   <drawing r:id="rId5"/>
 </worksheet>
 </file>
